--- a/session04/2_python_lab/python3-openpyxl/exercises/tmp/03-dane-gus-m.xlsx
+++ b/session04/2_python_lab/python3-openpyxl/exercises/tmp/03-dane-gus-m.xlsx
@@ -2420,6 +2420,444 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Population by year</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$14:$B$35</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$C$14:$C$35</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$D$14:$D$35</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number of people</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Population by year</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$C$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$D$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number of people</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Population by year</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$C$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabl. 3 (50)'!$D$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number of people</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -2439,6 +2877,72 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2778,7 +3282,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="28.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="5"/>
@@ -3241,7 +3745,7 @@
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="11.6640625" customWidth="1" style="375" min="2" max="5"/>
@@ -3788,7 +4292,7 @@
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -4146,7 +4650,7 @@
       <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="10"/>
@@ -5590,7 +6094,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="5"/>
@@ -6279,7 +6783,7 @@
       <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="7"/>
@@ -6816,7 +7320,7 @@
       <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -7729,7 +8233,7 @@
       <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="7"/>
@@ -8253,7 +8757,7 @@
       <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -10614,7 +11118,7 @@
       <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -12109,7 +12613,7 @@
       <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -12977,7 +13481,7 @@
       <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="12.6640625" customWidth="1" style="375" min="2" max="5"/>
@@ -13883,7 +14387,7 @@
       <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="32.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -14642,7 +15146,7 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="13.6640625" customWidth="1" style="375" min="2" max="3"/>
@@ -14991,7 +15495,7 @@
       <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -15444,7 +15948,7 @@
       <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="8.83203125" customWidth="1" style="375" min="2" max="256"/>
@@ -17085,7 +17589,7 @@
       <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="8.83203125" customWidth="1" style="375" min="2" max="9"/>
@@ -17437,7 +17941,7 @@
       <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="7.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -18542,7 +19046,7 @@
       <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -19412,7 +19916,7 @@
       <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -20294,7 +20798,7 @@
       <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -21130,7 +21634,7 @@
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="4"/>
@@ -21414,7 +21918,7 @@
       <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="8.83203125" customWidth="1" style="375" min="2" max="256"/>
@@ -22474,7 +22978,7 @@
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="4"/>
@@ -23220,7 +23724,7 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="40.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="15.6640625" customWidth="1" style="375" min="2" max="4"/>
@@ -24131,7 +24635,7 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -24492,7 +24996,7 @@
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -24836,7 +25340,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="5"/>
@@ -25120,7 +25624,7 @@
       <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -26138,7 +26642,7 @@
       <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="6.6640625" customWidth="1" style="375" min="2" max="2"/>
@@ -26850,7 +27354,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25.6640625" customWidth="1" style="375" min="1" max="1"/>
     <col width="10.6640625" customWidth="1" style="375" min="2" max="10"/>

--- a/session04/2_python_lab/python3-openpyxl/exercises/tmp/03-dane-gus-m.xlsx
+++ b/session04/2_python_lab/python3-openpyxl/exercises/tmp/03-dane-gus-m.xlsx
@@ -2300,25 +2300,9 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$A$14:$A$35</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$14:$B$35</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <tx>
+            <v>2010</v>
+          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
@@ -2336,8 +2320,11 @@
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>2015</v>
+          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
@@ -2421,298 +2408,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Population by year</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$14:$B$35</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$C$14:$C$35</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$D$14:$D$35</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Number of people</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Population by year</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$12</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$C$12</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$B$5:$D$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Tabl. 3 (50)'!$D$12</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Year</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Number of people</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
@@ -2899,50 +2594,6 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
